--- a/صيدليات دكتور مصطفي طلعت_2026-01-10_18-01.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-10_18-01.xlsx
@@ -140,6 +140,12 @@
     <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
   </si>
   <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
     <t>DOGMATIL 50MG 30 CAPS.</t>
   </si>
   <si>
@@ -246,6 +252,9 @@
   </si>
   <si>
     <t>PANTOPRAZOLE 40MG 14 TAB.</t>
+  </si>
+  <si>
+    <t>PAROFEN 30 OBLONG TAB.</t>
   </si>
   <si>
     <t>PERLOC 40MG 14 F.C.TAB.</t>
@@ -1492,17 +1501,17 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" ht="24.75" customHeight="1">
@@ -1510,7 +1519,7 @@
         <v>23</v>
       </c>
       <c t="s" r="B26" s="7">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1518,17 +1527,17 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1544,13 +1553,13 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
@@ -1562,7 +1571,7 @@
         <v>25</v>
       </c>
       <c t="s" r="B28" s="7">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1570,13 +1579,13 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>114</v>
+        <v>26</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
@@ -1588,7 +1597,7 @@
         <v>26</v>
       </c>
       <c t="s" r="B29" s="7">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1602,7 +1611,7 @@
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
@@ -1614,7 +1623,7 @@
         <v>27</v>
       </c>
       <c t="s" r="B30" s="7">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1622,17 +1631,17 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1">
@@ -1640,7 +1649,7 @@
         <v>28</v>
       </c>
       <c t="s" r="B31" s="7">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1648,17 +1657,17 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1680,11 +1689,11 @@
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1700,13 +1709,13 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>55.670000000000002</v>
+        <v>15</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
@@ -1718,7 +1727,7 @@
         <v>31</v>
       </c>
       <c t="s" r="B34" s="7">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1726,17 +1735,17 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>190</v>
+        <v>55.670000000000002</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1744,7 +1753,7 @@
         <v>32</v>
       </c>
       <c t="s" r="B35" s="7">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1758,7 +1767,7 @@
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>15.300000000000001</v>
+        <v>190</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
@@ -1770,7 +1779,7 @@
         <v>33</v>
       </c>
       <c t="s" r="B36" s="7">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1778,13 +1787,13 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>85.560000000000002</v>
+        <v>15.300000000000001</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
@@ -1796,7 +1805,7 @@
         <v>34</v>
       </c>
       <c t="s" r="B37" s="7">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1804,13 +1813,13 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>39</v>
+        <v>85.560000000000002</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
@@ -1822,7 +1831,7 @@
         <v>35</v>
       </c>
       <c t="s" r="B38" s="7">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -1836,7 +1845,7 @@
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
@@ -1848,7 +1857,7 @@
         <v>36</v>
       </c>
       <c t="s" r="B39" s="7">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -1856,17 +1865,17 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -1888,7 +1897,7 @@
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
@@ -1908,13 +1917,13 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>27.329999999999998</v>
+        <v>16</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
@@ -1926,7 +1935,7 @@
         <v>39</v>
       </c>
       <c t="s" r="B42" s="7">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -1934,13 +1943,13 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>0</v>
+        <v>27.329999999999998</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
@@ -1952,7 +1961,7 @@
         <v>40</v>
       </c>
       <c t="s" r="B43" s="7">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -1960,17 +1969,17 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>277.5</v>
+        <v>0</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -1978,7 +1987,7 @@
         <v>41</v>
       </c>
       <c t="s" r="B44" s="7">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -1986,13 +1995,13 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>247</v>
+        <v>277.5</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
@@ -2004,7 +2013,7 @@
         <v>42</v>
       </c>
       <c t="s" r="B45" s="7">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -2012,13 +2021,13 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>31</v>
+        <v>247</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
@@ -2030,7 +2039,7 @@
         <v>43</v>
       </c>
       <c t="s" r="B46" s="7">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -2038,13 +2047,13 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
@@ -2056,7 +2065,7 @@
         <v>44</v>
       </c>
       <c t="s" r="B47" s="7">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -2064,17 +2073,17 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
@@ -2090,17 +2099,17 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1">
@@ -2108,7 +2117,7 @@
         <v>46</v>
       </c>
       <c t="s" r="B49" s="7">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -2116,17 +2125,17 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2134,7 +2143,7 @@
         <v>47</v>
       </c>
       <c t="s" r="B50" s="7">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -2142,13 +2151,13 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>240</v>
+        <v>24</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
@@ -2160,7 +2169,7 @@
         <v>48</v>
       </c>
       <c t="s" r="B51" s="7">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -2168,17 +2177,17 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>8</v>
+        <v>240</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2194,17 +2203,17 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1">
@@ -2212,7 +2221,7 @@
         <v>50</v>
       </c>
       <c t="s" r="B53" s="7">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -2220,17 +2229,17 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" ht="24.75" customHeight="1">
@@ -2238,7 +2247,7 @@
         <v>51</v>
       </c>
       <c t="s" r="B54" s="7">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -2246,17 +2255,17 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55" ht="25.5" customHeight="1">
@@ -2264,7 +2273,7 @@
         <v>52</v>
       </c>
       <c t="s" r="B55" s="7">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -2272,17 +2281,17 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56" ht="24.75" customHeight="1">
@@ -2290,7 +2299,7 @@
         <v>53</v>
       </c>
       <c t="s" r="B56" s="7">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -2298,17 +2307,17 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>82</v>
+        <v>11</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>56.399999999999999</v>
+        <v>75</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2324,17 +2333,17 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1">
@@ -2350,17 +2359,17 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>30</v>
+        <v>56.399999999999999</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59" ht="24.75" customHeight="1">
@@ -2368,7 +2377,7 @@
         <v>56</v>
       </c>
       <c t="s" r="B59" s="7">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
@@ -2376,13 +2385,13 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
@@ -2402,13 +2411,13 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>65.75</v>
+        <v>30</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
@@ -2428,17 +2437,17 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>249.47999999999999</v>
+        <v>31</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -2446,7 +2455,7 @@
         <v>59</v>
       </c>
       <c t="s" r="B62" s="7">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -2460,7 +2469,7 @@
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>59</v>
+        <v>65.75</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
@@ -2472,7 +2481,7 @@
         <v>60</v>
       </c>
       <c t="s" r="B63" s="7">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -2480,17 +2489,17 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>80</v>
+        <v>249.47999999999999</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64" ht="24.75" customHeight="1">
@@ -2498,7 +2507,7 @@
         <v>61</v>
       </c>
       <c t="s" r="B64" s="7">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -2506,17 +2515,17 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65" ht="25.5" customHeight="1">
@@ -2524,7 +2533,7 @@
         <v>62</v>
       </c>
       <c t="s" r="B65" s="7">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -2532,17 +2541,17 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="66" ht="24.75" customHeight="1">
@@ -2550,7 +2559,7 @@
         <v>63</v>
       </c>
       <c t="s" r="B66" s="7">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
@@ -2558,17 +2567,17 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -2576,7 +2585,7 @@
         <v>64</v>
       </c>
       <c t="s" r="B67" s="7">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
@@ -2584,13 +2593,13 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
@@ -2602,7 +2611,7 @@
         <v>65</v>
       </c>
       <c t="s" r="B68" s="7">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -2610,13 +2619,13 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>2.5</v>
+        <v>25</v>
       </c>
       <c r="M68" s="9"/>
       <c t="s" r="N68" s="7">
@@ -2636,13 +2645,13 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M69" s="9"/>
       <c t="s" r="N69" s="7">
@@ -2662,17 +2671,17 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>31</v>
+        <v>2.5</v>
       </c>
       <c r="M70" s="9"/>
       <c t="s" r="N70" s="7">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="71" ht="24.75" customHeight="1">
@@ -2680,7 +2689,7 @@
         <v>68</v>
       </c>
       <c t="s" r="B71" s="7">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
@@ -2688,13 +2697,13 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="M71" s="9"/>
       <c t="s" r="N71" s="7">
@@ -2706,7 +2715,7 @@
         <v>69</v>
       </c>
       <c t="s" r="B72" s="7">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -2714,17 +2723,17 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="M72" s="9"/>
       <c t="s" r="N72" s="7">
-        <v>102</v>
+        <v>11</v>
       </c>
     </row>
     <row r="73" ht="25.5" customHeight="1">
@@ -2732,7 +2741,7 @@
         <v>70</v>
       </c>
       <c t="s" r="B73" s="7">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -2740,13 +2749,13 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>104</v>
+        <v>40</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="M73" s="9"/>
       <c t="s" r="N73" s="7">
@@ -2758,7 +2767,7 @@
         <v>71</v>
       </c>
       <c t="s" r="B74" s="7">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
@@ -2766,17 +2775,17 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M74" s="9"/>
       <c t="s" r="N74" s="7">
-        <v>17</v>
+        <v>105</v>
       </c>
     </row>
     <row r="75" ht="25.5" customHeight="1">
@@ -2784,7 +2793,7 @@
         <v>72</v>
       </c>
       <c t="s" r="B75" s="7">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -2792,13 +2801,13 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>11</v>
+        <v>107</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="M75" s="9"/>
       <c t="s" r="N75" s="7">
@@ -2818,13 +2827,13 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>26</v>
+        <v>109</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M76" s="9"/>
       <c t="s" r="N76" s="7">
@@ -2836,7 +2845,7 @@
         <v>74</v>
       </c>
       <c t="s" r="B77" s="7">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
@@ -2844,13 +2853,13 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>110</v>
+        <v>11</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="M77" s="9"/>
       <c t="s" r="N77" s="7">
@@ -2870,13 +2879,13 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c t="s" r="H78" s="8">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="M78" s="9"/>
       <c t="s" r="N78" s="7">
@@ -2896,13 +2905,13 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>19.199999999999999</v>
+        <v>20</v>
       </c>
       <c r="M79" s="9"/>
       <c t="s" r="N79" s="7">
@@ -2914,7 +2923,7 @@
         <v>77</v>
       </c>
       <c t="s" r="B80" s="7">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
@@ -2928,7 +2937,7 @@
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="M80" s="9"/>
       <c t="s" r="N80" s="7">
@@ -2940,7 +2949,7 @@
         <v>78</v>
       </c>
       <c t="s" r="B81" s="7">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
@@ -2948,51 +2957,103 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c t="s" r="H81" s="8">
-        <v>51</v>
+        <v>107</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>30</v>
+        <v>19.199999999999999</v>
       </c>
       <c r="M81" s="9"/>
       <c t="s" r="N81" s="7">
         <v>17</v>
       </c>
     </row>
-    <row r="82" ht="26.25" customHeight="1">
-      <c r="K82" s="10">
-        <v>4721.1899999999996</v>
-      </c>
-      <c r="L82" s="10"/>
-      <c r="M82" s="10"/>
-      <c r="N82" s="10"/>
-    </row>
-    <row r="83" ht="16.5" customHeight="1">
-      <c t="s" r="A83" s="11">
-        <v>115</v>
-      </c>
-      <c r="B83" s="11"/>
-      <c r="C83" s="11"/>
-      <c r="D83" s="11"/>
-      <c r="E83" s="11"/>
-      <c t="s" r="F83" s="12">
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="A82" s="6">
+        <v>79</v>
+      </c>
+      <c t="s" r="B82" s="7">
         <v>116</v>
       </c>
-      <c r="G83" s="12"/>
-      <c r="H83" s="13"/>
-      <c t="s" r="I83" s="14">
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+      <c t="s" r="H82" s="8">
+        <v>17</v>
+      </c>
+      <c r="I82" s="8"/>
+      <c r="J82" s="8"/>
+      <c r="K82" s="8"/>
+      <c r="L82" s="9">
+        <v>20</v>
+      </c>
+      <c r="M82" s="9"/>
+      <c t="s" r="N82" s="7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="83" ht="25.5" customHeight="1">
+      <c r="A83" s="6">
+        <v>80</v>
+      </c>
+      <c t="s" r="B83" s="7">
         <v>117</v>
       </c>
-      <c r="J83" s="14"/>
-      <c r="K83" s="14"/>
-      <c r="L83" s="14"/>
-      <c r="M83" s="14"/>
-      <c r="N83" s="14"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+      <c t="s" r="H83" s="8">
+        <v>53</v>
+      </c>
+      <c r="I83" s="8"/>
+      <c r="J83" s="8"/>
+      <c r="K83" s="8"/>
+      <c r="L83" s="9">
+        <v>30</v>
+      </c>
+      <c r="M83" s="9"/>
+      <c t="s" r="N83" s="7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="K84" s="10">
+        <v>4829.1899999999996</v>
+      </c>
+      <c r="L84" s="10"/>
+      <c r="M84" s="10"/>
+      <c r="N84" s="10"/>
+    </row>
+    <row r="85" ht="16.5" customHeight="1">
+      <c t="s" r="A85" s="11">
+        <v>118</v>
+      </c>
+      <c r="B85" s="11"/>
+      <c r="C85" s="11"/>
+      <c r="D85" s="11"/>
+      <c r="E85" s="11"/>
+      <c t="s" r="F85" s="12">
+        <v>119</v>
+      </c>
+      <c r="G85" s="12"/>
+      <c r="H85" s="13"/>
+      <c t="s" r="I85" s="14">
+        <v>120</v>
+      </c>
+      <c r="J85" s="14"/>
+      <c r="K85" s="14"/>
+      <c r="L85" s="14"/>
+      <c r="M85" s="14"/>
+      <c r="N85" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="245">
+  <mergeCells count="251">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -3234,10 +3295,16 @@
     <mergeCell ref="B81:G81"/>
     <mergeCell ref="H81:K81"/>
     <mergeCell ref="L81:M81"/>
-    <mergeCell ref="K82:N82"/>
-    <mergeCell ref="A83:E83"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="I83:N83"/>
+    <mergeCell ref="B82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="B83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="K84:N84"/>
+    <mergeCell ref="A85:E85"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="I85:N85"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
